--- a/Bases/Anteriores 2/Informes_2022.xlsx
+++ b/Bases/Anteriores 2/Informes_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\LOCACION OEFA\Busqueda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\REPOSITORIO_GITHUB\OEFA_SMER\Bases\Anteriores 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3114,7 +3114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3226,6 +3226,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21977,8 +21981,8 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30368,186 +30372,186 @@
       <c r="G423" s="4"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A424" s="3">
+      <c r="A424" s="12">
         <v>82</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C424" s="3">
+      <c r="C424" s="12">
         <v>4</v>
       </c>
-      <c r="D424" s="3" t="s">
+      <c r="D424" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E424" s="4" t="s">
+      <c r="E424" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F424" s="10">
+      <c r="F424" s="43">
         <v>0.52</v>
       </c>
-      <c r="G424" s="3">
+      <c r="G424" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A425" s="3">
+      <c r="A425" s="12">
         <v>82</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C425" s="3">
+      <c r="C425" s="12">
         <v>4</v>
       </c>
-      <c r="D425" s="3" t="s">
+      <c r="D425" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E425" s="4" t="s">
+      <c r="E425" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F425" s="10">
+      <c r="F425" s="43">
         <v>0.04</v>
       </c>
-      <c r="G425" s="3">
+      <c r="G425" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A426" s="3">
+      <c r="A426" s="12">
         <v>82</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C426" s="3">
+      <c r="C426" s="12">
         <v>4</v>
       </c>
-      <c r="D426" s="3" t="s">
+      <c r="D426" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E426" s="4" t="s">
+      <c r="E426" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F426" s="10">
+      <c r="F426" s="43">
         <v>0.18</v>
       </c>
-      <c r="G426" s="3">
+      <c r="G426" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A427" s="3">
+      <c r="A427" s="12">
         <v>82</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C427" s="3">
+      <c r="C427" s="12">
         <v>4</v>
       </c>
-      <c r="D427" s="3" t="s">
+      <c r="D427" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E427" s="17" t="s">
+      <c r="E427" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="F427" s="10">
+      <c r="F427" s="43">
         <v>-0.1</v>
       </c>
-      <c r="G427" s="3">
+      <c r="G427" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A428" s="3">
+      <c r="A428" s="12">
         <v>82</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C428" s="3">
+      <c r="C428" s="12">
         <v>4</v>
       </c>
-      <c r="D428" s="3" t="s">
+      <c r="D428" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E428" s="4" t="s">
+      <c r="E428" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F428" s="10">
+      <c r="F428" s="43">
         <v>0.52</v>
       </c>
-      <c r="G428" s="3">
+      <c r="G428" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A429" s="3">
+      <c r="A429" s="12">
         <v>82</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C429" s="3">
+      <c r="C429" s="12">
         <v>4</v>
       </c>
-      <c r="D429" s="3" t="s">
+      <c r="D429" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E429" s="4" t="s">
+      <c r="E429" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F429" s="10">
+      <c r="F429" s="43">
         <v>0.04</v>
       </c>
-      <c r="G429" s="3">
+      <c r="G429" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A430" s="3">
+      <c r="A430" s="12">
         <v>82</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C430" s="3">
+      <c r="C430" s="12">
         <v>4</v>
       </c>
-      <c r="D430" s="3" t="s">
+      <c r="D430" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E430" s="4" t="s">
+      <c r="E430" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F430" s="10">
+      <c r="F430" s="43">
         <v>0.06</v>
       </c>
-      <c r="G430" s="3">
+      <c r="G430" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A431" s="3">
+      <c r="A431" s="12">
         <v>82</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C431" s="3">
+      <c r="C431" s="12">
         <v>4</v>
       </c>
-      <c r="D431" s="3" t="s">
+      <c r="D431" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E431" s="17" t="s">
+      <c r="E431" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="F431" s="10">
+      <c r="F431" s="43">
         <v>-0.1</v>
       </c>
-      <c r="G431" s="3">
+      <c r="G431" s="12">
         <v>2</v>
       </c>
     </row>
